--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.500951300477088</v>
+        <v>0.6786205614925603</v>
       </c>
       <c r="D2">
-        <v>0.6164710617040221</v>
+        <v>0.5044549798162303</v>
       </c>
       <c r="E2">
         <v>0.6934649032915786</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.296537263840819</v>
+        <v>1.534416413199693</v>
       </c>
       <c r="D3">
-        <v>0.1949686137264812</v>
+        <v>0.1391840534998763</v>
       </c>
       <c r="E3">
         <v>0.6934649032915786</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.9608445770179893</v>
+        <v>0.98293925511605</v>
       </c>
       <c r="D4">
-        <v>0.3367686695365282</v>
+        <v>0.3363244148837217</v>
       </c>
       <c r="E4">
         <v>0.6934649032915786</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.1964027215670173</v>
+        <v>0.1926193927571476</v>
       </c>
       <c r="D5">
-        <v>0.8443187349100825</v>
+        <v>0.8490240947374166</v>
       </c>
       <c r="E5">
         <v>0.6934649032915786</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7041283305477966</v>
+        <v>0.6391191143249563</v>
       </c>
       <c r="D6">
-        <v>0.481450502072768</v>
+        <v>0.5293443487944267</v>
       </c>
       <c r="E6">
         <v>0.6785102570432523</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2733267136446789</v>
+        <v>0.284448829224068</v>
       </c>
       <c r="D7">
-        <v>0.7846356982561402</v>
+        <v>0.7787266743024626</v>
       </c>
       <c r="E7">
         <v>0.6785102570432523</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.3249505795518706</v>
+        <v>-0.316638919183646</v>
       </c>
       <c r="D8">
-        <v>0.7452589588050147</v>
+        <v>0.7545025823282372</v>
       </c>
       <c r="E8">
         <v>0.6785102570432523</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.3880742559304939</v>
+        <v>-0.3984838508677284</v>
       </c>
       <c r="D9">
-        <v>0.6980102787242215</v>
+        <v>0.6941146191634022</v>
       </c>
       <c r="E9">
         <v>0.657253674911824</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.969180436223987</v>
+        <v>-0.869263281372751</v>
       </c>
       <c r="D10">
-        <v>0.3325947588356779</v>
+        <v>0.3940881583839038</v>
       </c>
       <c r="E10">
         <v>0.657253674911824</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5926214438800118</v>
+        <v>-0.5465133057309075</v>
       </c>
       <c r="D11">
-        <v>0.5535143279763237</v>
+        <v>0.5902135200877194</v>
       </c>
       <c r="E11">
         <v>0.6694943293962814</v>
